--- a/2017 Stara Podstawowa/5.xlsx
+++ b/2017 Stara Podstawowa/5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\matura2018\2017 Stara Podstawowa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F81F4431-AC89-418A-A1E5-760DD6CA4F55}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE101254-BED4-4F3C-AA5A-E95C7BE6BDBC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{181D3AB4-D5E3-49CB-9BCE-11B95CC7320B}"/>
   </bookViews>
@@ -1793,7 +1793,7 @@
   <dimension ref="A1:Z1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
